--- a/my_excel_file4x4AFH.xlsx
+++ b/my_excel_file4x4AFH.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,43 +385,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.5323381926210465</v>
+        <v>-0.5371871238717035</v>
       </c>
       <c r="C2">
-        <v>-0.5435117501532977</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>-0.5339017542283306</v>
-      </c>
-      <c r="C3">
-        <v>-0.5492003344650027</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>-0.534657593092102</v>
-      </c>
-      <c r="C4">
-        <v>-0.5545149872733864</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>-0.5346591832625407</v>
-      </c>
-      <c r="C5">
-        <v>-0.5543006980158495</v>
+        <v>-0.5571396656879187</v>
       </c>
     </row>
   </sheetData>
